--- a/public/files/Table/中关村发展集团总部新电话表.xlsx
+++ b/public/files/Table/中关村发展集团总部新电话表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView windowWidth="28320" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,36 +12,251 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="166">
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张澍宁</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
+  <si>
+    <t>中关村发展集团总部电话表</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制表日期：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2018.7.12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>职务</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部门</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>姓</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>座</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新座机</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>董事长</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赵长山</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资本运营部</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>健</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总经理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鸿</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>党书杰</t>
@@ -53,7 +268,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>党委副书记、副总经理</t>
@@ -65,125 +279,49 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>罗天勇</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>聂汝嫣</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>刘国庆</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>杨如意</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>韩晓雪</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>贺永学</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>刘波涛</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>李南慧</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>范德虎</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>刘</t>
+        <charset val="134"/>
+      </rPr>
+      <t>王明兰</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>樊玉奇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>副总经理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -192,29 +330,60 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>银</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>王</t>
+        <charset val="134"/>
+      </rPr>
+      <t>妍</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乔永璞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>姚胜利</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王申博</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韩</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -223,29 +392,27 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>钟</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>沈</t>
+        <charset val="134"/>
+      </rPr>
+      <t>柏</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杨</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -254,29 +421,49 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>青</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>许</t>
+        <charset val="134"/>
+      </rPr>
+      <t>戈</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周武光</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风险管理部</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -285,29 +472,49 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>昊</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>孙</t>
+        <charset val="134"/>
+      </rPr>
+      <t>建</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纪委书记</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杨彦茹</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吕</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -316,202 +523,169 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>齐</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制表日期：</t>
+        <charset val="134"/>
+      </rPr>
+      <t>红</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总经理助理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邵顺昌</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宋</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2018.7.12</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>职务</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贾一伟</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汤</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>部门</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>姓</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滢</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>龙宜彬</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赵桂平</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>座</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>哲</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>于</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>机</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>新座机</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>董事长</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赵长山</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>资本运营部</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -520,509 +694,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>健</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总经理</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>鸿</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>王明兰</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>樊玉奇</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>副总经理</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>李</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>妍</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>乔永璞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>姚胜利</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>王申博</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>韩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>柏</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>杨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>戈</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周武光</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>风险管理部</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>建</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>纪委书记</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>杨彦茹</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>红</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总经理助理</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邵顺昌</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宇</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>贾一伟</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>汤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>滢</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>龙宜彬</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赵桂平</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>哲</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>雪</t>
@@ -1034,7 +705,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>段海波</t>
@@ -1046,7 +716,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>科技金融
@@ -1057,7 +726,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -1066,7 +735,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中科金</t>
@@ -1078,7 +746,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张书清</t>
@@ -1090,7 +757,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>首席金融战略专家</t>
@@ -1102,7 +768,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>许均华</t>
@@ -1114,7 +779,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>韦廷权</t>
@@ -1126,7 +790,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>党委办公室</t>
@@ -1136,9 +799,9 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">/
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1146,7 +809,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>集团办公室</t>
@@ -1158,7 +820,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>郑</t>
@@ -1168,7 +829,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -1177,7 +838,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>宏</t>
@@ -1189,7 +849,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赵</t>
@@ -1199,7 +858,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -1208,7 +867,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>婧</t>
@@ -1220,7 +878,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>黄</t>
@@ -1230,7 +887,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -1239,7 +896,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>洁</t>
@@ -1251,7 +907,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>陈</t>
@@ -1261,7 +916,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -1270,7 +925,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>刚</t>
@@ -1282,7 +936,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>叶传博</t>
@@ -1294,7 +947,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>颜世峰</t>
@@ -1306,7 +958,17 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张澍宁</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>李晓艳</t>
@@ -1318,7 +980,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>李海明</t>
@@ -1330,7 +991,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>郑宇瞳</t>
@@ -1342,7 +1002,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>李</t>
@@ -1352,7 +1011,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -1361,7 +1020,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>璐</t>
@@ -1373,7 +1031,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>王素娟</t>
@@ -1385,7 +1042,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>孙笑海</t>
@@ -1397,7 +1053,35 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>银</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>常</t>
@@ -1407,7 +1091,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -1416,7 +1100,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>峰</t>
@@ -1428,7 +1111,17 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>罗天勇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>杨</t>
@@ -1438,7 +1131,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -1447,7 +1140,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>静</t>
@@ -1459,7 +1151,39 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>聂汝嫣</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刘国庆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杨如意</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>王</t>
@@ -1469,7 +1193,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -1478,7 +1202,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>宁</t>
@@ -1490,7 +1213,17 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韩晓雪</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>庚晨伟</t>
@@ -1502,7 +1235,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>江</t>
@@ -1512,7 +1244,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -1521,7 +1253,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>帆</t>
@@ -1533,7 +1264,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>李贺英</t>
@@ -1545,7 +1275,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>聂鹿希</t>
@@ -1557,7 +1286,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>郑</t>
@@ -1567,7 +1295,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -1576,7 +1304,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>琨</t>
@@ -1588,7 +1315,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>科技园区
@@ -1601,7 +1327,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>储</t>
@@ -1611,7 +1336,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -1620,7 +1345,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鑫</t>
@@ -1632,7 +1356,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>孙旺利</t>
@@ -1644,7 +1367,17 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贺永学</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>董事会办公室</t>
@@ -1656,7 +1389,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>芦</t>
@@ -1666,7 +1398,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -1675,7 +1407,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>婧</t>
@@ -1687,7 +1418,35 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钟</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>党群工作部</t>
@@ -1699,7 +1458,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>李达亮</t>
@@ -1711,7 +1469,35 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>青</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>尹</t>
@@ -1721,7 +1507,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -1730,7 +1516,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>峰</t>
@@ -1742,7 +1527,35 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>许</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>昊</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>邵长波</t>
@@ -1754,7 +1567,17 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刘波涛</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>谷牧青</t>
@@ -1766,7 +1589,17 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李南慧</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>闫梦超</t>
@@ -1778,7 +1611,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>马雯蕊</t>
@@ -1790,7 +1622,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>组织部</t>
@@ -1800,7 +1631,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -1809,7 +1640,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>人力资源部</t>
@@ -1821,7 +1651,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>王清山</t>
@@ -1833,7 +1662,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>韩</t>
@@ -1843,7 +1671,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -1852,7 +1680,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>通</t>
@@ -1864,7 +1691,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>郭鹏程</t>
@@ -1876,7 +1702,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>产业投资部</t>
@@ -1888,7 +1713,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张金辉</t>
@@ -1900,7 +1724,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>丁晓丽</t>
@@ -1912,7 +1735,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张皓</t>
@@ -1924,7 +1746,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>唐中正</t>
@@ -1936,7 +1757,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>李</t>
@@ -1946,7 +1766,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -1955,7 +1775,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鑫</t>
@@ -1967,7 +1786,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>章</t>
@@ -1977,7 +1795,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -1986,7 +1804,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>睿</t>
@@ -1998,7 +1815,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>高泽栋</t>
@@ -2010,7 +1826,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>吴</t>
@@ -2020,7 +1835,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -2029,7 +1844,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>峰</t>
@@ -2041,7 +1855,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>陈</t>
@@ -2051,7 +1864,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -2060,7 +1873,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>宁</t>
@@ -2072,7 +1884,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>林欣蔚</t>
@@ -2084,7 +1895,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>齐</t>
@@ -2094,7 +1904,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -2103,7 +1913,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>众</t>
@@ -2115,7 +1924,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>李文慧</t>
@@ -2127,7 +1935,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>贾振钊</t>
@@ -2139,7 +1946,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>宣传部</t>
@@ -2149,7 +1955,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -2158,7 +1964,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>品牌管理部</t>
@@ -2170,7 +1975,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>项</t>
@@ -2180,7 +1984,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -2189,7 +1993,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鹏</t>
@@ -2201,7 +2004,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>黄一鸣</t>
@@ -2213,7 +2015,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张一夫</t>
@@ -2225,7 +2026,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张欣欣</t>
@@ -2237,7 +2037,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>伍孟然</t>
@@ -2249,7 +2048,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>蔡良圆</t>
@@ -2261,7 +2059,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>纪检监察部</t>
@@ -2273,7 +2070,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赵倩颖</t>
@@ -2285,7 +2081,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>闫</t>
@@ -2295,7 +2090,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -2304,7 +2099,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>涛</t>
@@ -2316,7 +2110,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>周子华</t>
@@ -2328,7 +2121,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>于</t>
@@ -2338,7 +2130,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -2347,7 +2139,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>星</t>
@@ -2359,7 +2150,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张京</t>
@@ -2371,7 +2161,35 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>齐</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>邱林彤</t>
@@ -2383,7 +2201,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>战略管理部</t>
@@ -2395,7 +2212,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>娄毅翔</t>
@@ -2407,7 +2223,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>郑茹源</t>
@@ -2419,7 +2234,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>孙乐乐</t>
@@ -2431,7 +2245,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>姚秋民</t>
@@ -2443,7 +2256,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张</t>
@@ -2453,7 +2265,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -2462,7 +2274,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>森</t>
@@ -2474,7 +2285,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>海外业务部</t>
@@ -2486,7 +2296,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赵小鹏</t>
@@ -2498,7 +2307,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>安</t>
@@ -2508,7 +2316,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -2517,7 +2325,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>然</t>
@@ -2529,7 +2336,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>林</t>
@@ -2539,7 +2345,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -2548,7 +2354,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>珂</t>
@@ -2560,7 +2365,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>叶</t>
@@ -2570,7 +2374,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -2579,7 +2383,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>梅</t>
@@ -2591,7 +2394,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>裘里晶</t>
@@ -2603,7 +2405,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>刘思敏</t>
@@ -2615,7 +2416,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>康</t>
@@ -2625,7 +2425,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -2634,7 +2434,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>森</t>
@@ -2646,7 +2445,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>吕朋悦</t>
@@ -2658,7 +2456,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>刘</t>
@@ -2668,7 +2465,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -2677,7 +2474,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>伟</t>
@@ -2689,7 +2485,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>资金财务部</t>
@@ -2701,7 +2496,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>杨彦文</t>
@@ -2713,7 +2507,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>李玺靓</t>
@@ -2725,7 +2518,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>李永鑫</t>
@@ -2737,7 +2529,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>胡晗</t>
@@ -2749,7 +2540,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>罗桂林</t>
@@ -2761,7 +2551,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>王佳奇</t>
@@ -2773,7 +2562,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>杨笑楠</t>
@@ -2785,7 +2573,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>区域合作部</t>
@@ -2797,7 +2584,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张冉</t>
@@ -2809,7 +2595,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>高永生</t>
@@ -2821,7 +2606,17 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>范德虎</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>苏晓云</t>
@@ -2833,7 +2628,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>陈常雷</t>
@@ -2845,7 +2639,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>佘亚楠</t>
@@ -2857,7 +2650,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>夏</t>
@@ -2867,7 +2659,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -2876,7 +2668,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>宁</t>
@@ -2888,7 +2679,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>陶</t>
@@ -2898,7 +2688,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -2907,7 +2697,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>蕊</t>
@@ -2919,7 +2708,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>李红军</t>
@@ -2931,7 +2719,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>杨爱华</t>
@@ -2943,7 +2730,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>骆</t>
@@ -2953,7 +2739,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -2962,7 +2748,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>娟</t>
@@ -2974,7 +2759,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>侯</t>
@@ -2984,7 +2768,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -2993,7 +2777,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>珏</t>
@@ -3005,7 +2788,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张宁昕</t>
@@ -3017,7 +2799,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赵</t>
@@ -3027,7 +2808,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -3036,7 +2817,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红</t>
@@ -3048,7 +2828,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>李天龙</t>
@@ -3060,23 +2839,17 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>欧阳昳兰</t>
     </r>
   </si>
   <si>
-    <t>中关村发展集团总部电话表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>电话前缀号码均为：</t>
@@ -3086,7 +2859,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>8345</t>
     </r>
@@ -3095,7 +2868,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -3105,7 +2877,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>12</t>
     </r>
@@ -3114,7 +2886,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>层前台电话：</t>
@@ -3124,7 +2895,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>83453688</t>
     </r>
@@ -3133,7 +2904,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -3143,7 +2913,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>15</t>
     </r>
@@ -3152,7 +2922,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>层前台电话：</t>
@@ -3162,7 +2931,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>83453699</t>
     </r>
@@ -3171,7 +2940,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、传真</t>
@@ -3181,19 +2949,17 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>83453600</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>内线拨号：直播后四位，外线</t>
@@ -3203,7 +2969,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0+</t>
     </r>
@@ -3212,60 +2978,41 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电话号码</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3273,25 +3020,180 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3310,8 +3212,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -3371,159 +3459,359 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4631,7 +4919,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4875,1831 +5163,1826 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="10"/>
-    <col min="4" max="4" width="7.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="10"/>
-    <col min="8" max="8" width="13.125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="7.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="13.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27">
-      <c r="A1" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1">
+    <row r="1" ht="27" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" ht="15.75" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
         <v>8606</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <f>VLOOKUP(B4,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3606</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3">
         <v>8682</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <f>VLOOKUP(F4,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3682</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1">
+    <row r="5" ht="15.75" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
         <v>8603</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <f>VLOOKUP(B5,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3603</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3">
         <v>8713</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <f>VLOOKUP(F5,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3647</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.5">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1">
+    <row r="6" ht="28.5" spans="1:8">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
         <v>8710</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP(B6,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3609</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3">
         <v>8679</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <f>VLOOKUP(F6,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3679</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75">
-      <c r="A7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1">
+    <row r="7" ht="15.75" spans="1:8">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3">
         <v>8601</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <f>VLOOKUP(B7,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3601</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <f>VLOOKUP(F7,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3760</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="1">
+    <row r="8" ht="15.75" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3">
         <v>8630</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <f>VLOOKUP(B8,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3630</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3">
         <v>8632</v>
       </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" ht="15.75" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3">
         <v>8610</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <f>VLOOKUP(B9,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3610</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
         <v>3632</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="1">
+    <row r="10" ht="15.75" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3">
         <v>8720</v>
       </c>
       <c r="D10" s="6">
         <f>VLOOKUP(B10,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3620</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="3">
         <v>8621</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="3">
         <f>VLOOKUP(F10,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3621</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="1">
+    <row r="11" ht="15.75" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3">
         <v>8602</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <f>VLOOKUP(B11,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3602</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3">
         <v>8626</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="3">
         <f>VLOOKUP(F11,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3626</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75">
-      <c r="A12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="1">
+    <row r="12" ht="15.75" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3">
         <v>8605</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <f>VLOOKUP(B12,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3605</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3">
         <v>8326</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="3">
         <f>VLOOKUP(F12,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3686</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75">
-      <c r="A13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="1">
+    <row r="13" ht="15.75" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3">
         <v>8631</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <f>VLOOKUP(B13,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3631</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="3">
         <v>8628</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="3">
         <f>VLOOKUP(F13,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3628</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75">
-      <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="1">
+    <row r="14" ht="15.75" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3">
         <v>8607</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <f>VLOOKUP(B14,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3607</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="3">
         <v>8622</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="3">
         <f>VLOOKUP(F14,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3622</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="7">
+    <row r="15" ht="15.75" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="8">
         <v>8608</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <f>VLOOKUP(B15,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3608</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
         <v>3765</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="1">
+    <row r="16" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="3">
         <v>8691</v>
       </c>
       <c r="D16" s="6">
         <f>VLOOKUP(B16,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3611</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="E16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="3">
         <v>8227</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="3">
         <f>VLOOKUP(F16,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3689</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75">
-      <c r="A17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="1">
+    <row r="17" ht="15.75" spans="1:8">
+      <c r="A17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3">
         <v>8212</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <f>VLOOKUP(B17,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3612</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="E17" s="9"/>
+      <c r="F17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="3">
         <v>8049</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="3">
         <f>VLOOKUP(F17,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3733</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="1">
+    <row r="18" ht="27" customHeight="1" spans="1:8">
+      <c r="A18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3">
         <v>8670</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <f>VLOOKUP(B18,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3670</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1">
+      <c r="E18" s="9"/>
+      <c r="F18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
         <f>VLOOKUP(F18,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3748</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75">
-      <c r="A19" s="18"/>
-      <c r="B19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="1">
+    <row r="19" ht="15.75" spans="1:8">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="3">
         <v>8653</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="3">
         <f>VLOOKUP(B19,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3653</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="E19" s="9"/>
+      <c r="F19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="3">
         <v>8349</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="3">
         <f>VLOOKUP(F19,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3736</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75">
-      <c r="A20" s="18"/>
-      <c r="B20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="1">
+    <row r="20" ht="15.75" spans="1:8">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="3">
         <v>8613</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="3">
         <f>VLOOKUP(B20,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3613</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="E20" s="9"/>
+      <c r="F20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="3">
         <v>8542</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="3">
         <f>VLOOKUP(F20,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3730</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75">
-      <c r="A21" s="18"/>
-      <c r="B21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
+    <row r="21" ht="15.75" spans="1:8">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="3">
         <v>8633</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="3">
         <f>VLOOKUP(B21,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3633</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="E21" s="9"/>
+      <c r="F21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="3">
         <v>8214</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="3">
         <f>VLOOKUP(F21,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3648</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75">
-      <c r="A22" s="18"/>
-      <c r="B22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="1">
+    <row r="22" ht="15.75" spans="1:8">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="3">
         <v>8659</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="3">
         <f>VLOOKUP(B22,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3659</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="E22" s="9"/>
+      <c r="F22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="3">
         <v>8067</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="3">
         <f>VLOOKUP(F22,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3742</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75">
-      <c r="A23" s="18"/>
-      <c r="B23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="1">
+    <row r="23" ht="15.75" spans="1:8">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="3">
         <v>8658</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="3">
         <f>VLOOKUP(B23,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3658</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="E23" s="9"/>
+      <c r="F23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="3">
         <v>8267</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="3">
         <f>VLOOKUP(F23,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3741</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75">
-      <c r="A24" s="18"/>
-      <c r="B24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="1">
+    <row r="24" ht="15.75" spans="1:8">
+      <c r="A24" s="5"/>
+      <c r="B24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="3">
         <v>8668</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="3">
         <f>VLOOKUP(B24,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3668</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1">
+      <c r="E24" s="9"/>
+      <c r="F24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
         <f>VLOOKUP(F24,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3749</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75">
-      <c r="A25" s="18"/>
-      <c r="B25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="1">
+    <row r="25" ht="15.75" spans="1:8">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="3">
         <v>8623</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="3">
         <f>VLOOKUP(B25,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3623</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1">
+      <c r="E25" s="9"/>
+      <c r="F25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
         <f>VLOOKUP(F25,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3750</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75">
-      <c r="A26" s="18"/>
-      <c r="B26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="1">
+    <row r="26" ht="15.75" spans="1:8">
+      <c r="A26" s="5"/>
+      <c r="B26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="3">
         <v>8640</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="3">
         <f>VLOOKUP(B26,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3640</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1">
+      <c r="E26" s="9"/>
+      <c r="F26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
         <f>VLOOKUP(F26,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75">
-      <c r="A27" s="18"/>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1">
+    <row r="27" ht="15.75" spans="1:8">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="3">
         <v>8705</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="3">
         <f>VLOOKUP(B27,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3635</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1">
+      <c r="E27" s="9"/>
+      <c r="F27" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
         <f>VLOOKUP(F27,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3752</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75">
-      <c r="A28" s="18"/>
-      <c r="B28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="1">
+    <row r="28" ht="15.75" spans="1:8">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="3">
         <v>8660</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="3">
         <f>VLOOKUP(B28,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3660</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1">
+      <c r="E28" s="9"/>
+      <c r="F28" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
         <f>VLOOKUP(F28,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3753</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75">
-      <c r="A29" s="18"/>
-      <c r="B29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="1">
+    <row r="29" ht="15.75" spans="1:8">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="3">
         <v>8652</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="3">
         <f>VLOOKUP(B29,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3652</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1">
+      <c r="E29" s="9"/>
+      <c r="F29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
         <f>VLOOKUP(F29,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3754</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75">
-      <c r="A30" s="18"/>
-      <c r="B30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="1">
+    <row r="30" ht="15.75" spans="1:8">
+      <c r="A30" s="5"/>
+      <c r="B30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="3">
         <v>8657</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="3">
         <f>VLOOKUP(B30,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3657</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1">
+      <c r="E30" s="9"/>
+      <c r="F30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
         <f>VLOOKUP(F30,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3755</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75">
-      <c r="A31" s="18"/>
-      <c r="B31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1">
+    <row r="31" ht="15.75" spans="1:8">
+      <c r="A31" s="5"/>
+      <c r="B31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3">
         <v>3761</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="E31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="3">
         <v>8262</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="3">
         <f>VLOOKUP(F31,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3738</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75">
-      <c r="A32" s="18"/>
-      <c r="B32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1">
+    <row r="32" ht="15.75" spans="1:8">
+      <c r="A32" s="5"/>
+      <c r="B32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3">
         <v>3762</v>
       </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="1">
+      <c r="E32" s="5"/>
+      <c r="F32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="3">
         <v>8237</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="3">
         <f>VLOOKUP(F32,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3699</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75">
-      <c r="A33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="1">
+    <row r="33" ht="15.75" spans="1:8">
+      <c r="A33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="3">
         <v>8627</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="3">
         <f>VLOOKUP(B33,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3627</v>
       </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="1">
+      <c r="E33" s="5"/>
+      <c r="F33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="3">
         <v>8257</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="3">
         <f>VLOOKUP(F33,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3735</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75">
-      <c r="A34" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="1">
+    <row r="34" ht="15.75" spans="1:8">
+      <c r="A34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="3">
         <v>8663</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="3">
         <f>VLOOKUP(B34,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3663</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="1">
+      <c r="E34" s="5"/>
+      <c r="F34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="3">
         <v>8546</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="3">
         <f>VLOOKUP(F34,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3732</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75">
-      <c r="A35" s="18"/>
-      <c r="B35" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="1">
+    <row r="35" ht="15.75" spans="1:8">
+      <c r="A35" s="5"/>
+      <c r="B35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="3">
         <v>8697</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="3">
         <f>VLOOKUP(B35,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3697</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="1">
+      <c r="E35" s="5"/>
+      <c r="F35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="3">
         <v>8064</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="3">
         <f>VLOOKUP(F35,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3740</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75">
-      <c r="A36" s="18"/>
-      <c r="B36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="1">
+    <row r="36" ht="15.75" spans="1:8">
+      <c r="A36" s="5"/>
+      <c r="B36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="3">
         <v>8669</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="3">
         <f>VLOOKUP(B36,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3669</v>
       </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="1">
+      <c r="E36" s="5"/>
+      <c r="F36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="3">
         <v>8063</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="3">
         <f>VLOOKUP(F36,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3739</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75">
-      <c r="A37" s="18"/>
-      <c r="B37" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="1">
+    <row r="37" ht="15.75" spans="1:8">
+      <c r="A37" s="5"/>
+      <c r="B37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="3">
         <v>8071</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="3">
         <f>VLOOKUP(B37,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3671</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="E37" s="5"/>
+      <c r="F37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" s="3">
         <v>8074</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="3">
         <f>VLOOKUP(F37,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3743</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75">
-      <c r="A38" s="18"/>
-      <c r="B38" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="1">
+    <row r="38" ht="15.75" spans="1:8">
+      <c r="A38" s="5"/>
+      <c r="B38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="3">
         <v>8701</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="3">
         <f>VLOOKUP(B38,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3629</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38" s="1">
+      <c r="E38" s="5"/>
+      <c r="F38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" s="3">
         <v>8244</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="3">
         <f>VLOOKUP(F38,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3731</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75">
-      <c r="A39" s="18" t="s">
+    <row r="39" ht="15.75" spans="1:8">
+      <c r="A39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="1">
+      <c r="C39" s="3">
         <v>8661</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="3">
         <f>VLOOKUP(B39,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3661</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1">
+      <c r="E39" s="5"/>
+      <c r="F39" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3">
         <f>VLOOKUP(F39,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3756</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75">
-      <c r="A40" s="18"/>
-      <c r="B40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="1">
+    <row r="40" ht="15.75" spans="1:8">
+      <c r="A40" s="5"/>
+      <c r="B40" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="3">
         <v>8643</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="3">
         <f>VLOOKUP(B40,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3643</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G40" s="1">
+      <c r="G40" s="3">
         <v>8712</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="3">
         <f>VLOOKUP(F40,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3646</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75">
-      <c r="A41" s="18"/>
-      <c r="B41" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="1">
+    <row r="41" ht="15.75" spans="1:8">
+      <c r="A41" s="5"/>
+      <c r="B41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="3">
         <v>8667</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="3">
         <f>VLOOKUP(B41,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3667</v>
       </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="1" t="s">
+      <c r="E41" s="5"/>
+      <c r="F41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3">
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" spans="1:8">
+      <c r="A42" s="5"/>
+      <c r="B42" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1">
-        <v>3677</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75">
-      <c r="A42" s="18"/>
-      <c r="B42" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="1">
+      <c r="C42" s="3">
         <v>8662</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="3">
         <f>VLOOKUP(B42,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3662</v>
       </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G42" s="1">
+      <c r="E42" s="5"/>
+      <c r="F42" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="3">
         <v>8707</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="3">
         <f>VLOOKUP(F42,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3639</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75">
-      <c r="A43" s="18"/>
-      <c r="B43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="1">
+    <row r="43" ht="15.75" spans="1:8">
+      <c r="A43" s="5"/>
+      <c r="B43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="3">
         <v>8029</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="3">
         <f>VLOOKUP(B43,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3746</v>
       </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G43" s="1">
+      <c r="E43" s="5"/>
+      <c r="F43" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" s="3">
         <v>8674</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="3">
         <f>VLOOKUP(F43,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3674</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75">
-      <c r="A44" s="18"/>
-      <c r="B44" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="1">
+    <row r="44" ht="15.75" spans="1:8">
+      <c r="A44" s="5"/>
+      <c r="B44" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="3">
         <v>8687</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="3">
         <f>VLOOKUP(B44,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3687</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G44" s="1">
+      <c r="E44" s="5"/>
+      <c r="F44" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" s="3">
         <v>8654</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="3">
         <f>VLOOKUP(F44,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3654</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75">
-      <c r="A45" s="18"/>
-      <c r="B45" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="1">
+    <row r="45" ht="15.75" spans="1:8">
+      <c r="A45" s="5"/>
+      <c r="B45" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="3">
         <v>8665</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="3">
         <f>VLOOKUP(B45,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3665</v>
       </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G45" s="1">
+      <c r="E45" s="5"/>
+      <c r="F45" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45" s="3">
         <v>8715</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="3">
         <f>VLOOKUP(F45,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3651</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1" t="s">
+    <row r="46" ht="15.75" spans="1:8">
+      <c r="A46" s="5"/>
+      <c r="B46" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3">
+        <v>3763</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1">
-        <v>3763</v>
-      </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G46" s="1">
+      <c r="G46" s="3">
         <v>8706</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="3">
         <f>VLOOKUP(F46,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3637</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75">
-      <c r="A47" s="17" t="s">
+    <row r="47" ht="15.75" spans="1:8">
+      <c r="A47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="1">
+      <c r="C47" s="3">
         <v>8655</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="3">
         <f>VLOOKUP(B47,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3655</v>
       </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G47" s="1">
+      <c r="E47" s="5"/>
+      <c r="F47" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G47" s="3">
         <v>8707</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="3">
         <f>VLOOKUP(F47,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3642</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75">
-      <c r="A48" s="17"/>
-      <c r="B48" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="1">
+    <row r="48" ht="15.75" spans="1:8">
+      <c r="A48" s="3"/>
+      <c r="B48" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="3">
         <v>8675</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="3">
         <f>VLOOKUP(B48,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3675</v>
       </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G48" s="1">
+      <c r="E48" s="5"/>
+      <c r="F48" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G48" s="3">
         <v>8714</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="3">
         <f>VLOOKUP(F48,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3649</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75">
-      <c r="A49" s="17"/>
-      <c r="B49" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="1">
+    <row r="49" ht="15.75" spans="1:8">
+      <c r="A49" s="3"/>
+      <c r="B49" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="3">
         <v>8696</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="3">
         <f>VLOOKUP(B49,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3696</v>
       </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="1" t="s">
+      <c r="E49" s="5"/>
+      <c r="F49" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" spans="1:8">
+      <c r="A50" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1">
-        <v>3651</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.75">
-      <c r="A50" s="17" t="s">
+      <c r="B50" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="C50" s="3">
+        <v>8642</v>
+      </c>
+      <c r="D50" s="3">
+        <v>3642</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G50" s="3">
+        <v>8714</v>
+      </c>
+      <c r="H50" s="3">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" spans="1:8">
+      <c r="A51" s="3"/>
+      <c r="B51" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="1">
-        <v>8642</v>
-      </c>
-      <c r="D50" s="1">
-        <v>3642</v>
-      </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" s="1">
-        <v>8714</v>
-      </c>
-      <c r="H50" s="1">
-        <v>3650</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.75">
-      <c r="A51" s="17"/>
-      <c r="B51" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="1">
+      <c r="C51" s="3">
         <v>8641</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="3">
         <f>VLOOKUP(B51,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3641</v>
       </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G51" s="1">
+      <c r="E51" s="5"/>
+      <c r="F51" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G51" s="3">
         <v>8672</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="3">
         <f>VLOOKUP(F51,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3672</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75">
-      <c r="A52" s="17"/>
-      <c r="B52" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="1">
+    <row r="52" ht="15.75" spans="1:8">
+      <c r="A52" s="3"/>
+      <c r="B52" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="3">
         <v>8678</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="3">
         <f>VLOOKUP(B52,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3678</v>
       </c>
-      <c r="E52" s="18"/>
-      <c r="F52" s="1" t="s">
+      <c r="E52" s="5"/>
+      <c r="F52" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G52" s="3">
+        <v>8716</v>
+      </c>
+      <c r="H52" s="3">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" spans="1:8">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G52" s="1">
-        <v>8716</v>
-      </c>
-      <c r="H52" s="1">
-        <v>3664</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.75">
-      <c r="A53" s="17"/>
-      <c r="B53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3">
         <f>VLOOKUP(B53,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3747</v>
       </c>
-      <c r="E53" s="18"/>
-      <c r="F53" s="1" t="s">
+      <c r="E53" s="5"/>
+      <c r="F53" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1">
+      <c r="G53" s="3"/>
+      <c r="H53" s="3">
         <v>3665</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75">
-      <c r="A54" s="17" t="s">
+    <row r="54" ht="15.75" spans="1:8">
+      <c r="A54" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="3">
         <v>8690</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="3">
         <f>VLOOKUP(B54,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3690</v>
       </c>
-      <c r="E54" s="18"/>
-      <c r="F54" s="1" t="s">
+      <c r="E54" s="5"/>
+      <c r="F54" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1">
+      <c r="G54" s="3"/>
+      <c r="H54" s="3">
         <v>3667</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75">
-      <c r="A55" s="17"/>
-      <c r="B55" s="1" t="s">
+    <row r="55" ht="15.75" spans="1:8">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="3">
         <v>8694</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="3">
         <f>VLOOKUP(B55,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3694</v>
       </c>
-      <c r="E55" s="18"/>
-      <c r="F55" s="1" t="s">
+      <c r="E55" s="5"/>
+      <c r="F55" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1">
+      <c r="G55" s="3"/>
+      <c r="H55" s="3">
         <v>3669</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75">
-      <c r="A56" s="17"/>
-      <c r="B56" s="1" t="s">
+    <row r="56" ht="15.75" spans="1:8">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="3">
         <v>8693</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="3">
         <f>VLOOKUP(B56,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3693</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1">
+      <c r="G56" s="3"/>
+      <c r="H56" s="3">
         <f>VLOOKUP(F56,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3757</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75">
-      <c r="A57" s="17"/>
-      <c r="B57" s="1" t="s">
+    <row r="57" ht="15.75" spans="1:8">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="3">
         <v>8692</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="3">
         <f>VLOOKUP(B57,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3692</v>
       </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1" t="s">
+      <c r="E57" s="3"/>
+      <c r="F57" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="3">
         <v>8711</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="3">
         <f>VLOOKUP(F57,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3645</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75">
-      <c r="A58" s="17"/>
-      <c r="B58" s="1" t="s">
+    <row r="58" ht="15.75" spans="1:8">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="3">
         <v>8681</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="3">
         <f>VLOOKUP(B58,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3681</v>
       </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1" t="s">
+      <c r="E58" s="3"/>
+      <c r="F58" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58" s="3">
         <v>8718</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58" s="3">
         <f>VLOOKUP(F58,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3683</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75">
-      <c r="A59" s="17"/>
-      <c r="B59" s="1" t="s">
+    <row r="59" ht="15.75" spans="1:8">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="3">
         <v>8676</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="3">
         <f>VLOOKUP(B59,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3676</v>
       </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1" t="s">
+      <c r="E59" s="3"/>
+      <c r="F59" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="3">
         <v>8708</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="3">
         <f>VLOOKUP(F59,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3644</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75">
-      <c r="A60" s="17"/>
-      <c r="B60" s="1" t="s">
+    <row r="60" ht="15.75" spans="1:8">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1">
+      <c r="C60" s="3"/>
+      <c r="D60" s="3">
         <v>3764</v>
       </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1" t="s">
+      <c r="E60" s="3"/>
+      <c r="F60" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60" s="3">
         <v>8704</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60" s="3">
         <f>VLOOKUP(F60,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3634</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75">
-      <c r="A61" s="19" t="s">
+    <row r="61" ht="15.75" spans="1:8">
+      <c r="A61" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="3">
         <v>8618</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="3">
         <f>VLOOKUP(B61,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3618</v>
       </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1" t="s">
+      <c r="E61" s="3"/>
+      <c r="F61" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="3">
         <v>8673</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61" s="3">
         <f>VLOOKUP(F61,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3673</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75">
-      <c r="A62" s="19"/>
-      <c r="B62" s="1" t="s">
+    <row r="62" ht="15.75" spans="1:8">
+      <c r="A62" s="11"/>
+      <c r="B62" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="3">
         <v>8616</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="3">
         <f>VLOOKUP(B62,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3616</v>
       </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1" t="s">
+      <c r="E62" s="3"/>
+      <c r="F62" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="3">
         <v>8709</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="3">
         <v>3768</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75">
-      <c r="A63" s="19"/>
-      <c r="B63" s="1" t="s">
+    <row r="63" ht="15.75" spans="1:8">
+      <c r="A63" s="11"/>
+      <c r="B63" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="3">
         <v>8615</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="3">
         <f>VLOOKUP(B63,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3615</v>
       </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1" t="s">
+      <c r="E63" s="3"/>
+      <c r="F63" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1">
+      <c r="G63" s="3"/>
+      <c r="H63" s="3">
         <f>VLOOKUP(F63,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3758</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75">
-      <c r="A64" s="19"/>
-      <c r="B64" s="1" t="s">
+    <row r="64" ht="15.75" spans="1:8">
+      <c r="A64" s="11"/>
+      <c r="B64" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="3">
         <v>8617</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="3">
         <f>VLOOKUP(B64,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3617</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="E64" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1">
+      <c r="G64" s="3"/>
+      <c r="H64" s="3">
         <v>3671</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75">
-      <c r="A65" s="19"/>
-      <c r="B65" s="1" t="s">
+    <row r="65" ht="15.75" spans="1:8">
+      <c r="A65" s="11"/>
+      <c r="B65" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="3">
         <v>8620</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="3">
         <f>VLOOKUP(B65,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3684</v>
       </c>
-      <c r="E65" s="17"/>
-      <c r="F65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="1">
+      <c r="E65" s="3"/>
+      <c r="F65" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G65" s="3">
         <v>8398</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65" s="3">
         <f>VLOOKUP(F65,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3698</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75">
-      <c r="A66" s="19"/>
-      <c r="B66" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C66" s="1">
+    <row r="66" ht="15.75" spans="1:8">
+      <c r="A66" s="11"/>
+      <c r="B66" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="3">
         <v>8052</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="3">
         <f>VLOOKUP(B66,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3734</v>
       </c>
-      <c r="E66" s="17"/>
-      <c r="F66" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G66" s="1">
+      <c r="E66" s="3"/>
+      <c r="F66" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G66" s="3">
         <v>8681</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="3">
         <f>VLOOKUP(F66,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3680</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75">
-      <c r="A67" s="19"/>
-      <c r="B67" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C67" s="1">
+    <row r="67" ht="15.75" spans="1:8">
+      <c r="A67" s="11"/>
+      <c r="B67" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="3">
         <v>8095</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="3">
         <f>VLOOKUP(B67,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3744</v>
       </c>
-      <c r="E67" s="17"/>
-      <c r="F67" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1">
+      <c r="E67" s="3"/>
+      <c r="F67" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3">
         <f>VLOOKUP(F67,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3759</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75">
-      <c r="A68" s="19"/>
-      <c r="B68" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C68" s="1">
+    <row r="68" ht="15.75" spans="1:8">
+      <c r="A68" s="11"/>
+      <c r="B68" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="3">
         <v>8036</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="3">
         <f>VLOOKUP(B68,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3695</v>
       </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="1:8" ht="15.75">
-      <c r="A69" s="19"/>
-      <c r="B69" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C69" s="1">
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" ht="15.75" spans="1:8">
+      <c r="A69" s="11"/>
+      <c r="B69" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" s="3">
         <v>8638</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="3">
         <f>VLOOKUP(B69,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3638</v>
       </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="1:8" ht="15.75">
-      <c r="A70" s="19"/>
-      <c r="B70" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C70" s="1">
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" ht="15.75" spans="1:8">
+      <c r="A70" s="11"/>
+      <c r="B70" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="3">
         <v>8611</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="3">
         <f>VLOOKUP(B70,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3624</v>
       </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="1:8" ht="15.75">
-      <c r="A71" s="19"/>
-      <c r="B71" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C71" s="1">
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" ht="15.75" spans="1:8">
+      <c r="A71" s="11"/>
+      <c r="B71" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" s="3">
         <v>8097</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="3">
         <f>VLOOKUP(B71,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3745</v>
       </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="1:8" ht="15.75">
-      <c r="A72" s="19"/>
-      <c r="B72" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C72" s="1">
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" ht="15.75" spans="1:8">
+      <c r="A72" s="11"/>
+      <c r="B72" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="3">
         <v>8612</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="3">
         <f>VLOOKUP(B72,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3625</v>
       </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="1:8" ht="15.75">
-      <c r="A73" s="19"/>
-      <c r="B73" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" s="1">
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" ht="15.75" spans="1:8">
+      <c r="A73" s="11"/>
+      <c r="B73" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" s="3">
         <v>8233</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="3">
         <f>VLOOKUP(B73,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3691</v>
       </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="1:8" ht="15.75">
-      <c r="A74" s="19"/>
-      <c r="B74" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C74" s="1">
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" ht="15.75" spans="1:8">
+      <c r="A74" s="11"/>
+      <c r="B74" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="3">
         <v>8685</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="3">
         <f>VLOOKUP(B74,[1]方案一校验!A:B,2,FALSE)</f>
         <v>3685</v>
       </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="1:8" ht="15.75">
-      <c r="A75" s="19"/>
-      <c r="B75" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C75" s="3">
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" ht="15.75" spans="1:8">
+      <c r="A75" s="11"/>
+      <c r="B75" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" s="7">
         <v>8069</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="7">
         <v>3069</v>
       </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="1:8" ht="15.75">
-      <c r="A76" s="19"/>
-      <c r="B76" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C76" s="3">
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" ht="15.75" spans="1:8">
+      <c r="A76" s="11"/>
+      <c r="B76" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C76" s="7">
         <v>8619</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="7">
         <v>3619</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-    </row>
-    <row r="77" spans="1:8" ht="15.75">
-      <c r="A77" s="8"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-    </row>
-    <row r="78" spans="1:8" ht="15.75">
-      <c r="A78" s="14" t="s">
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" ht="15.75" spans="1:8">
+      <c r="A77" s="11"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" ht="15.75" spans="1:8">
+      <c r="A78" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="16"/>
-    </row>
-    <row r="79" spans="1:8" ht="15.75">
-      <c r="A79" s="11" t="s">
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="14"/>
+    </row>
+    <row r="79" ht="15.75" spans="1:8">
+      <c r="A79" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="13"/>
-    </row>
-    <row r="80" spans="1:8" ht="15.75">
-      <c r="A80" s="8"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="14"/>
+    </row>
+    <row r="80" ht="15.75" spans="1:8">
+      <c r="A80" s="11"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="9"/>
+      <c r="A81" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="E16:E30"/>
+    <mergeCell ref="A78:H78"/>
     <mergeCell ref="A18:A32"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="E31:E39"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A39:A45"/>
-    <mergeCell ref="A78:H78"/>
     <mergeCell ref="A47:A49"/>
-    <mergeCell ref="E40:E55"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A54:A60"/>
     <mergeCell ref="A61:A76"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="E16:E30"/>
+    <mergeCell ref="E31:E39"/>
+    <mergeCell ref="E40:E55"/>
     <mergeCell ref="E64:E67"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H67 D4:D74 H4:H7">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D74 H4:H7 H9:H67">
       <formula1>3000</formula1>
       <formula2>3999</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>